--- a/WonTableConverter/YourExcelFilePath.xlsx
+++ b/WonTableConverter/YourExcelFilePath.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myProject\WonTableConverter\WonTableConverter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\myProject\WTableConverter\WonTableConverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23385" windowHeight="9300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23385" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
     <sheet name="Test2" sheetId="2" r:id="rId2"/>
-    <sheet name="ThirdKeyTest" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Test2_sub" sheetId="5" r:id="rId3"/>
+    <sheet name="ThirdKeyTest" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +169,17 @@
   </si>
   <si>
     <t>TEST7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST1</t>
+  </si>
+  <si>
+    <t>TEST1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,6 +947,228 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -1189,7 +1423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
